--- a/metrics/metrics.xlsx
+++ b/metrics/metrics.xlsx
@@ -1,87 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfine\Documents\Github - JAVA\RecommenderSys\metrics\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9538DBAC-3C0C-4266-B997-9369AFE8C2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>RMSE</t>
-  </si>
-  <si>
-    <t>MAE</t>
-  </si>
-  <si>
-    <t>MAP</t>
-  </si>
-  <si>
-    <t>MAR</t>
-  </si>
-  <si>
-    <t>Mean_NDCG</t>
-  </si>
-  <si>
-    <t>Coverage</t>
-  </si>
-  <si>
-    <t>User_Coverage</t>
-  </si>
-  <si>
-    <t>Novelty</t>
-  </si>
-  <si>
-    <t>item-based</t>
-  </si>
-  <si>
-    <t>user-based</t>
-  </si>
-  <si>
-    <t>SVD</t>
-  </si>
-  <si>
-    <t>SVDPlusPlus</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -96,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,159 +420,219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="8" max="8" width="11.54296875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MAP</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Mean_NDCG</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Coverage</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>User_Coverage</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Novelty</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>item-based</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9171705603579543</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6978390132280915</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7430477491543066</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4479516403483504</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9518188099103801</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.02072132616487455</v>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
+      <c r="I2" t="n">
+        <v>5853.927868852459</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>user-based</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9029931528241073</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6864474629038703</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7299186833203226</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4667214959398828</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9510456458372629</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.05432347670250896</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9967213114754099</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4231.016581842062</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SVD</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8802406731194736</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6761736095706121</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.736956154046318</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4480285771906531</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9539119077683176</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03841845878136201</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9180327868852459</v>
+      </c>
+      <c r="I4" t="n">
+        <v>420.5740060140328</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SVDPlusPlus</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8687771629331227</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6642348123475501</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7438400988810825</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4495088451590847</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.954354941047711</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03449820788530466</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9081967213114754</v>
+      </c>
+      <c r="I5" t="n">
+        <v>694.2675159235669</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>item-based</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>0.9171705603579543</v>
       </c>
-      <c r="C2">
+      <c r="C6" t="n">
         <v>0.6978390132280915</v>
       </c>
-      <c r="D2">
+      <c r="D6" t="n">
         <v>0.7430477491543066</v>
       </c>
-      <c r="E2">
-        <v>0.44795164034835039</v>
-      </c>
-      <c r="F2">
-        <v>0.95181880991038015</v>
-      </c>
-      <c r="G2">
-        <v>2.072132616487455E-2</v>
-      </c>
-      <c r="H2">
+      <c r="E6" t="n">
+        <v>0.4479516403483504</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9518188099103801</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.02072132616487455</v>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>5853.9278688524591</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>0.9029931528241073</v>
-      </c>
-      <c r="C3">
-        <v>0.68644746290387026</v>
-      </c>
-      <c r="D3">
-        <v>0.72991868332032261</v>
-      </c>
-      <c r="E3">
-        <v>0.46672149593988282</v>
-      </c>
-      <c r="F3">
-        <v>0.95104564583726292</v>
-      </c>
-      <c r="G3">
-        <v>5.4323476702508963E-2</v>
-      </c>
-      <c r="H3">
-        <v>0.99672131147540988</v>
-      </c>
-      <c r="I3">
-        <v>4231.0165818420619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>0.88024067311947363</v>
-      </c>
-      <c r="C4">
-        <v>0.67617360957061212</v>
-      </c>
-      <c r="D4">
-        <v>0.73695615404631798</v>
-      </c>
-      <c r="E4">
-        <v>0.44802857719065309</v>
-      </c>
-      <c r="F4">
-        <v>0.95391190776831758</v>
-      </c>
-      <c r="G4">
-        <v>3.8418458781362012E-2</v>
-      </c>
-      <c r="H4">
-        <v>0.91803278688524592</v>
-      </c>
-      <c r="I4">
-        <v>420.57400601403282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>0.86877716293312268</v>
-      </c>
-      <c r="C5">
-        <v>0.66423481234755011</v>
-      </c>
-      <c r="D5">
-        <v>0.74384009888108249</v>
-      </c>
-      <c r="E5">
-        <v>0.44950884515908468</v>
-      </c>
-      <c r="F5">
-        <v>0.95435494104771101</v>
-      </c>
-      <c r="G5">
-        <v>3.4498207885304659E-2</v>
-      </c>
-      <c r="H5">
-        <v>0.90819672131147544</v>
-      </c>
-      <c r="I5">
-        <v>694.26751592356686</v>
+      <c r="I6" t="n">
+        <v>5853.927868852459</v>
       </c>
     </row>
   </sheetData>

--- a/metrics/metrics.xlsx
+++ b/metrics/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,6 +635,37 @@
         <v>5853.927868852459</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.432008605909173</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.142850709350129</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6299258391881344</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2936791357561054</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9311618691362433</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.02968189964157706</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1846.098360655738</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/metrics/metrics.xlsx
+++ b/metrics/metrics.xlsx
@@ -1,37 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfine\Documents\Github - JAVA\RecommenderSys\metrics\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA809DF6-7113-46BA-928F-5156C93F64C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>Mean_NDCG</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>User_Coverage</t>
+  </si>
+  <si>
+    <t>Novelty</t>
+  </si>
+  <si>
+    <t>item-based</t>
+  </si>
+  <si>
+    <t>user-based</t>
+  </si>
+  <si>
+    <t>SVD</t>
+  </si>
+  <si>
+    <t>SVDPlusPlus</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>RBM_v2</t>
+  </si>
+  <si>
+    <t>min_rating = 3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +105,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,250 +429,248 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MAP</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>MAR</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Mean_NDCG</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Coverage</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>User_Coverage</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Novelty</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>item-based</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
         <v>0.9171705603579543</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.6978390132280915</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.7430477491543066</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.4479516403483504</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.9518188099103801</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.02072132616487455</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="E2">
+        <v>0.44795164034835039</v>
+      </c>
+      <c r="F2">
+        <v>0.95181880991038015</v>
+      </c>
+      <c r="G2">
+        <v>2.072132616487455E-2</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>5853.927868852459</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>user-based</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="I2">
+        <v>5853.9278688524591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
         <v>0.9029931528241073</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.6864474629038703</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7299186833203226</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.4667214959398828</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9510456458372629</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.05432347670250896</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9967213114754099</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4231.016581842062</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SVD</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.8802406731194736</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6761736095706121</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.736956154046318</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.4480285771906531</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.9539119077683176</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.03841845878136201</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.9180327868852459</v>
-      </c>
-      <c r="I4" t="n">
-        <v>420.5740060140328</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SVDPlusPlus</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.8687771629331227</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.6642348123475501</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7438400988810825</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.4495088451590847</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.954354941047711</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.03449820788530466</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.9081967213114754</v>
-      </c>
-      <c r="I5" t="n">
-        <v>694.2675159235669</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>item-based</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="C3">
+        <v>0.68644746290387026</v>
+      </c>
+      <c r="D3">
+        <v>0.72991868332032261</v>
+      </c>
+      <c r="E3">
+        <v>0.46672149593988282</v>
+      </c>
+      <c r="F3">
+        <v>0.95104564583726292</v>
+      </c>
+      <c r="G3">
+        <v>5.4323476702508963E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.99672131147540988</v>
+      </c>
+      <c r="I3">
+        <v>4231.0165818420619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0.88024067311947363</v>
+      </c>
+      <c r="C4">
+        <v>0.67617360957061212</v>
+      </c>
+      <c r="D4">
+        <v>0.73695615404631798</v>
+      </c>
+      <c r="E4">
+        <v>0.44802857719065309</v>
+      </c>
+      <c r="F4">
+        <v>0.95391190776831758</v>
+      </c>
+      <c r="G4">
+        <v>3.8418458781362012E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.91803278688524592</v>
+      </c>
+      <c r="I4">
+        <v>420.57400601403282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0.86877716293312268</v>
+      </c>
+      <c r="C5">
+        <v>0.66423481234755011</v>
+      </c>
+      <c r="D5">
+        <v>0.74384009888108249</v>
+      </c>
+      <c r="E5">
+        <v>0.44950884515908468</v>
+      </c>
+      <c r="F5">
+        <v>0.95435494104771101</v>
+      </c>
+      <c r="G5">
+        <v>3.4498207885304659E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.90819672131147544</v>
+      </c>
+      <c r="I5">
+        <v>694.26751592356686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
         <v>0.9171705603579543</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.6978390132280915</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.7430477491543066</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.4479516403483504</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.9518188099103801</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.02072132616487455</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="E6">
+        <v>0.44795164034835039</v>
+      </c>
+      <c r="F6">
+        <v>0.95181880991038015</v>
+      </c>
+      <c r="G6">
+        <v>2.072132616487455E-2</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>5853.927868852459</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>random</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="I6">
+        <v>5853.9278688524591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
         <v>1.432008605909173</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1.142850709350129</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.6299258391881344</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2936791357561054</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.9311618691362433</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.02968189964157706</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="D7">
+        <v>0.62992583918813438</v>
+      </c>
+      <c r="E7">
+        <v>0.29367913575610538</v>
+      </c>
+      <c r="F7">
+        <v>0.93116186913624333</v>
+      </c>
+      <c r="G7">
+        <v>2.968189964157706E-2</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
-        <v>1846.098360655738</v>
+      <c r="I7">
+        <v>1846.0983606557379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1.162020029660972</v>
+      </c>
+      <c r="C8">
+        <v>0.96411979700133554</v>
+      </c>
+      <c r="D8">
+        <v>0.1630412438199324</v>
+      </c>
+      <c r="E8">
+        <v>7.932898182588681E-3</v>
+      </c>
+      <c r="F8">
+        <v>0.93596596616791328</v>
+      </c>
+      <c r="G8">
+        <v>2.800179211469534E-3</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>667.05557377049183</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
